--- a/LokkaL Work Log.xlsx
+++ b/LokkaL Work Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\AndroidStudioProjects\LokkaL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933EDEB-C840-443C-829F-D36FCCCB94CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85E842-725B-4B5C-AE09-233F03568E24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4B93EF9E-968D-4891-AAA2-27858ECFC76B}"/>
   </bookViews>
@@ -169,8 +169,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,12 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,9 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F3854-BC87-4903-8D21-78D2A2974270}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -534,13 +543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -986,5 +995,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LokkaL Work Log.xlsx
+++ b/LokkaL Work Log.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\AndroidStudioProjects\LokkaL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85E842-725B-4B5C-AE09-233F03568E24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4B93EF9E-968D-4891-AAA2-27858ECFC76B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -159,17 +156,41 @@
     <t>Created test map and login activities</t>
   </si>
   <si>
-    <t>Read into MySQL database connection through JDBC</t>
-  </si>
-  <si>
     <t>Minor UI changes and created app logos</t>
+  </si>
+  <si>
+    <t>Hours Spent</t>
+  </si>
+  <si>
+    <t>Create database table creation scripts</t>
+  </si>
+  <si>
+    <t>Read into SQL Server database connection through JDBC</t>
+  </si>
+  <si>
+    <t>Work on implementing correct connection information from server to app</t>
+  </si>
+  <si>
+    <t>Debug issues with connecting app to server</t>
+  </si>
+  <si>
+    <t>Meet with Ward to get help or see about other solutions</t>
+  </si>
+  <si>
+    <t>Learn how to implement REST Services</t>
+  </si>
+  <si>
+    <t>Meet with Ward to fix issues of inserting data into database</t>
+  </si>
+  <si>
+    <t>Meet with Ward to qet quering information working with the database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +202,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,10 +240,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,8 +256,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -329,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -523,26 +574,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F3854-BC87-4903-8D21-78D2A2974270}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -552,449 +605,675 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1">
+      <c r="A2" s="4">
+        <v>43124</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43138</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>43141</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>43162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>43170</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>43183</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>43183</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>43192</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>43192</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>43197</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>43197</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>43197</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>43201</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>43204</v>
       </c>
       <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>43206</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>43206</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>43206</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>43206</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>43207</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>43208</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>43210</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>43212</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>43212</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>43212</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>43212</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>43212</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>43213</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43214</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>43214</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>43215</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>43215</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>43216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>43216</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>